--- a/BD24-2T01/Clientes-Sorvete-Pedidos.xlsx
+++ b/BD24-2T01/Clientes-Sorvete-Pedidos.xlsx
@@ -1,19 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20413"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT TARDE\Banco de Dados\BD24-2T01\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5DEC13B-AD1E-487C-B3B5-02A6438181AD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12105" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Cliente" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="Sorvete" sheetId="2" r:id="rId5"/>
-    <sheet state="visible" name="Pedidos" sheetId="3" r:id="rId6"/>
+    <sheet name="Cliente" sheetId="1" r:id="rId1"/>
+    <sheet name="Sorvete" sheetId="2" r:id="rId2"/>
+    <sheet name="Pedidos" sheetId="3" r:id="rId3"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="60">
   <si>
     <t>ID do cliente</t>
   </si>
@@ -187,23 +196,30 @@
   </si>
   <si>
     <t>lf5351</t>
+  </si>
+  <si>
+    <t>a) pediu 5 potes de sorvetes</t>
+  </si>
+  <si>
+    <t>b) foram 3, 2 de chocolate preto e 1 de chocolate branco</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d/m/yyyy"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
@@ -214,53 +230,46 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="5">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -450,20 +459,25 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -477,7 +491,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -491,7 +505,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
@@ -505,7 +519,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
@@ -519,7 +533,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>16</v>
       </c>
@@ -533,7 +547,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>20</v>
       </c>
@@ -547,7 +561,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>24</v>
       </c>
@@ -561,37 +575,38 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C8" s="3"/>
     </row>
-    <row r="9">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C9" s="3"/>
     </row>
-    <row r="12">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D12" s="4"/>
     </row>
-    <row r="14">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D14" s="4"/>
     </row>
-    <row r="17">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" s="1"/>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>28</v>
       </c>
@@ -602,7 +617,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>31</v>
       </c>
@@ -613,7 +628,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>34</v>
       </c>
@@ -624,7 +639,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>36</v>
       </c>
@@ -635,7 +650,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>38</v>
       </c>
@@ -646,7 +661,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>41</v>
       </c>
@@ -657,7 +672,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>43</v>
       </c>
@@ -668,7 +683,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>46</v>
       </c>
@@ -680,21 +695,24 @@
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>48</v>
       </c>
@@ -711,7 +729,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>51</v>
       </c>
@@ -722,13 +740,13 @@
         <v>38</v>
       </c>
       <c r="D2" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="E2" s="4">
-        <v>45586.0</v>
-      </c>
-    </row>
-    <row r="3">
+        <v>45586</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>52</v>
       </c>
@@ -739,13 +757,13 @@
         <v>34</v>
       </c>
       <c r="D3" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>54</v>
       </c>
@@ -756,13 +774,13 @@
         <v>36</v>
       </c>
       <c r="D4" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="E4" s="4">
-        <v>45586.0</v>
-      </c>
-    </row>
-    <row r="5">
+        <v>45586</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>55</v>
       </c>
@@ -773,13 +791,13 @@
         <v>41</v>
       </c>
       <c r="D5" s="1">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="E5" s="4">
-        <v>45586.0</v>
-      </c>
-    </row>
-    <row r="6">
+        <v>45586</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>56</v>
       </c>
@@ -790,13 +808,13 @@
         <v>43</v>
       </c>
       <c r="D6" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="E6" s="4">
-        <v>45586.0</v>
-      </c>
-    </row>
-    <row r="7">
+        <v>45586</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>57</v>
       </c>
@@ -807,13 +825,23 @@
         <v>46</v>
       </c>
       <c r="D7" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="E7" s="4">
-        <v>45586.0</v>
+        <v>45586</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>